--- a/database/sidis/expdata/6002.xlsx
+++ b/database/sidis/expdata/6002.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">error</t>
+    <t xml:space="preserve">error_u</t>
   </si>
   <si>
     <t xml:space="preserve">target</t>
@@ -189,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
